--- a/medicine/Handicap/Le_Cœur_en_braille/Le_Cœur_en_braille.xlsx
+++ b/medicine/Handicap/Le_Cœur_en_braille/Le_Cœur_en_braille.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Le_C%C5%93ur_en_braille</t>
+          <t>Le_Cœur_en_braille</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Cœur en braille est une comédie dramatique franco-belge réalisée par Michel Boujenah, sortie en 2016. 
 Ce film est une adaptation du livre du même nom, Le Cœur en braille, écrit par Pascal Ruter, paru en 2012.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Le_C%C5%93ur_en_braille</t>
+          <t>Le_Cœur_en_braille</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Marie, élève sérieuse et passionnée de violoncelle, souhaite intégrer le conservatoire supérieur, mais est en train de perdre la vue. Elle se lie d'amitié avec Victor qui va l'aider dans cette aventure: réussir à rentrer dans cette prestigieuse école en cachant son handicap...
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Le_C%C5%93ur_en_braille</t>
+          <t>Le_Cœur_en_braille</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre : Le Cœur en braille
 Réalisation : Michel Boujenah
@@ -575,7 +591,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Le_C%C5%93ur_en_braille</t>
+          <t>Le_Cœur_en_braille</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -593,7 +609,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Alix Vaillot : Marie
 Jean-Stan Du Pac : Victor
